--- a/Synths/Arg_synth.xlsx
+++ b/Synths/Arg_synth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguppy/Documents/jupyter_backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Chi-T\Chi-T\Synths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ADFDA6-943B-A843-BFC2-EE7A721FFBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DD915-74EB-4045-B665-999084CF68D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1060" windowWidth="10000" windowHeight="15440" xr2:uid="{7B549815-24BE-F941-BFAE-879A3BFEAA11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B549815-24BE-F941-BFAE-879A3BFEAA11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,30 +82,6 @@
     <t>WP_005532004.1</t>
   </si>
   <si>
-    <t>&gt;W09127825</t>
-  </si>
-  <si>
-    <t>&gt;W11301568</t>
-  </si>
-  <si>
-    <t>&gt;C11300221</t>
-  </si>
-  <si>
-    <t>&gt;W131064644</t>
-  </si>
-  <si>
-    <t>&gt;C121001241</t>
-  </si>
-  <si>
-    <t>&gt;W131189827</t>
-  </si>
-  <si>
-    <t>&gt;C11300548</t>
-  </si>
-  <si>
-    <t>&gt;W09122422</t>
-  </si>
-  <si>
     <t>ACLH01000009</t>
   </si>
   <si>
@@ -142,16 +118,40 @@
     <t>WP_005280167</t>
   </si>
   <si>
-    <t>&gt;C10110712</t>
-  </si>
-  <si>
-    <t>&gt;W09122376</t>
-  </si>
-  <si>
     <t>AP011540</t>
   </si>
   <si>
     <t>ACGD01000001</t>
+  </si>
+  <si>
+    <t>C10110712</t>
+  </si>
+  <si>
+    <t>W09122376</t>
+  </si>
+  <si>
+    <t>W11301568</t>
+  </si>
+  <si>
+    <t>W09127825</t>
+  </si>
+  <si>
+    <t>C11300221</t>
+  </si>
+  <si>
+    <t>W131064644</t>
+  </si>
+  <si>
+    <t>C121001241</t>
+  </si>
+  <si>
+    <t>W131189827</t>
+  </si>
+  <si>
+    <t>C11300548</t>
+  </si>
+  <si>
+    <t>W09122422</t>
   </si>
 </sst>
 </file>
@@ -512,40 +512,40 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,13 +609,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -623,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,13 +637,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -651,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
